--- a/Fire work/Company/Bhandup_saimita/Billing Bhandup.xlsx
+++ b/Fire work/Company/Bhandup_saimita/Billing Bhandup.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\15042024\balaji-general-file\Fire work\Company\Bhandup_saimita\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2926D7EE-7122-43F8-A83F-6EAE0D82727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill log" sheetId="1" r:id="rId1"/>
@@ -15,24 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bill log'!$A$2:$H$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="131">
   <si>
     <t>Saimita</t>
   </si>
@@ -401,22 +394,43 @@
   </si>
   <si>
     <t>fire extingusher installation completed</t>
+  </si>
+  <si>
+    <t>Vishnubhuwan 4</t>
+  </si>
+  <si>
+    <t>80 mm pipe wrapping coating</t>
+  </si>
+  <si>
+    <t>150 mm pipe Ringline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 mm pipe tank inlet and hydrant post installation </t>
+  </si>
+  <si>
+    <t>150 mm pipe Ringline wrapping coating</t>
+  </si>
+  <si>
+    <t>39.6 mtr</t>
+  </si>
+  <si>
+    <t>60.4 mtr</t>
+  </si>
+  <si>
+    <t>NBF/0425/14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="_ [$₹-4009]* #,##0.00_ ;_ [$₹-4009]* \-#,##0.00_ ;_ [$₹-4009]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="167" formatCode="_ [$₹-4009]* #,##0.00_ ;_ [$₹-4009]* \-#,##0.00_ ;_ [$₹-4009]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,40 +442,40 @@
       <b/>
       <i/>
       <sz val="12"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -530,151 +544,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF1F497D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,7 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,180 +620,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1238,262 +953,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1508,23 +984,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1535,60 +999,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="12" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1596,31 +1048,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="14" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1632,62 +1078,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1945,1076 +1392,1084 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.2181818181818" customWidth="1"/>
-    <col min="3" max="3" width="14.6636363636364" customWidth="1"/>
-    <col min="4" max="4" width="11.4454545454545" customWidth="1"/>
-    <col min="5" max="6" width="10.7818181818182"/>
-    <col min="7" max="7" width="15.1090909090909" customWidth="1"/>
-    <col min="8" max="8" width="16.8909090909091" customWidth="1"/>
-    <col min="9" max="9" width="14.3363636363636" customWidth="1"/>
-    <col min="10" max="10" width="3.78181818181818" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="3.81640625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="10.5545454545455" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="15.5545454545455" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.25" spans="1:16">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:19" ht="33.5">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="33">
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="26">
         <v>45303</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="28">
         <v>80000</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="89" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="90"/>
+      <c r="J3" s="78"/>
       <c r="K3">
         <v>52</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="33">
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="18">
         <v>45321</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="30">
         <v>88000</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="30">
         <v>167000</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="30">
         <v>1000</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="90"/>
+      <c r="J4" s="78"/>
       <c r="K4">
         <v>54</v>
       </c>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-    </row>
-    <row r="5" s="28" customFormat="1" spans="1:16">
-      <c r="A5" s="40">
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+    </row>
+    <row r="5" spans="1:19" s="21" customFormat="1">
+      <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="26">
         <v>45355</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="28">
         <v>151200</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
         <v>151200</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="33">
+      <c r="H5" s="29"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="18">
         <v>45356</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="30">
         <v>15500</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="30">
         <v>13500</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="30">
         <v>0</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-    </row>
-    <row r="7" s="28" customFormat="1" spans="1:16">
-      <c r="A7" s="40">
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+    </row>
+    <row r="7" spans="1:19" s="21" customFormat="1">
+      <c r="A7" s="32">
         <v>5</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="33">
         <v>45387</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="35">
         <v>48375</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="35">
         <v>5000</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="28">
         <v>43375</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="90"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="33">
+      <c r="H7" s="27"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="25">
         <v>6</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="36">
         <v>45459</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="38">
         <v>130900</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="45" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="90"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-    </row>
-    <row r="9" s="28" customFormat="1" spans="1:19">
-      <c r="A9" s="49">
+      <c r="I8" s="77"/>
+      <c r="J8" s="78"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+    </row>
+    <row r="9" spans="1:19" s="21" customFormat="1">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="42">
         <v>45459</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="44">
         <v>30000</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="51" t="s">
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="90"/>
-      <c r="M9" s="91">
+      <c r="H9" s="45"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
+      <c r="M9" s="79">
         <v>1</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="26">
         <v>45303</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="27">
         <v>80000</v>
       </c>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35" t="s">
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="35"/>
+      <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="23">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="46">
         <v>45459</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="48">
         <v>133100</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
-      <c r="M10" s="92">
+      <c r="H10" s="49"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
+      <c r="M10" s="80">
         <v>2</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="18">
         <v>45321</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="16">
         <v>88000</v>
       </c>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23" t="s">
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="23"/>
-    </row>
-    <row r="11" s="28" customFormat="1" spans="1:19">
-      <c r="A11" s="35">
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" s="21" customFormat="1">
+      <c r="A11" s="27">
         <v>9</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="50">
         <v>45459</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="51">
         <v>60180</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60" t="s">
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="93" t="s">
+      <c r="H11" s="52"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="93">
+      <c r="P11" s="81">
         <f>SUM(P9:P10)</f>
         <v>168000</v>
       </c>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="23">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="46">
         <v>45459</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="48">
         <v>20500</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57" t="s">
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="93" t="s">
+      <c r="H12" s="49"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="78"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="93">
+      <c r="P12" s="81">
         <v>167000</v>
       </c>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-    </row>
-    <row r="13" s="28" customFormat="1" spans="1:19">
-      <c r="A13" s="40">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" s="21" customFormat="1">
+      <c r="A13" s="32">
         <v>11</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="50">
         <v>45565</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="51">
         <v>95800</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="93" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="P13" s="93">
+      <c r="P13" s="81">
         <f>SUM(P11-P12)</f>
         <v>1000</v>
       </c>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-    </row>
-    <row r="14" ht="15.5" spans="1:10">
-      <c r="A14" s="33">
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.5">
+      <c r="A14" s="25">
         <v>12</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="50">
         <v>45619</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="23">
-        <v>88764</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23" t="s">
+      <c r="D14" s="68">
+        <v>106614</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
-    </row>
-    <row r="15" s="28" customFormat="1" spans="1:10">
-      <c r="A15" s="40">
+      <c r="H14" s="31"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
+    </row>
+    <row r="15" spans="1:19" s="21" customFormat="1">
+      <c r="A15" s="32">
         <v>13</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="26">
         <v>45619</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="27">
         <v>115260</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="90"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="62">
+      <c r="H15" s="29"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="78"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.5">
+      <c r="A16" s="54">
         <v>14</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="95"/>
-    </row>
-    <row r="17" ht="15.25" spans="1:10">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67">
+      <c r="B16" s="102">
+        <v>45759</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="55">
+        <v>51040</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59">
         <f>SUM(D3:D16)</f>
-        <v>1057579</v>
-      </c>
-      <c r="E17" s="68">
+        <v>1126469</v>
+      </c>
+      <c r="E17" s="60">
         <f>SUM(E3:E16)</f>
         <v>185500</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="61">
         <f>SUM(F4:F16)</f>
         <v>195575</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-    </row>
-    <row r="18" spans="9:10">
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-    </row>
-    <row r="19" spans="9:10">
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-    </row>
-    <row r="20" spans="9:10">
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-    </row>
-    <row r="21" spans="9:10">
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-    </row>
-    <row r="22" ht="15.25" spans="1:10">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="F23" s="26" t="s">
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="F23" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="86"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="71"/>
-      <c r="F24" s="34">
+      <c r="J23" s="74"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="F24" s="26">
         <v>45303</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="28">
         <v>80000</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="71"/>
-      <c r="F25" s="25">
+    <row r="25" spans="1:10">
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="F25" s="18">
         <v>45321</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="30">
         <v>88000</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="75"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="71"/>
-      <c r="F26" s="34">
+    <row r="26" spans="1:10">
+      <c r="A26" s="65"/>
+      <c r="B26" s="64"/>
+      <c r="F26" s="26">
         <v>45355</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="28">
         <v>151200</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="71"/>
-      <c r="F27" s="25">
+    <row r="27" spans="1:10">
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="F27" s="18">
         <v>45356</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="30">
         <v>15500</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="75"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="71"/>
-      <c r="F28" s="41">
+    <row r="28" spans="1:10">
+      <c r="A28" s="65"/>
+      <c r="B28" s="64"/>
+      <c r="F28" s="33">
         <v>45387</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="35">
         <v>48375</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="75"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="71"/>
-      <c r="F29" s="44">
+    <row r="29" spans="1:10">
+      <c r="A29" s="65"/>
+      <c r="B29" s="64"/>
+      <c r="F29" s="36">
         <v>45459</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="38">
         <v>130900</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="71"/>
-      <c r="F30" s="50">
+    <row r="30" spans="1:10">
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="F30" s="42">
         <v>45459</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="44">
         <v>30000</v>
       </c>
-      <c r="I30" s="51" t="s">
+      <c r="I30" s="43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="75"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="71"/>
-      <c r="F31" s="54">
+    <row r="31" spans="1:10">
+      <c r="A31" s="65"/>
+      <c r="B31" s="64"/>
+      <c r="F31" s="46">
         <v>45459</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="48">
         <v>133100</v>
       </c>
-      <c r="I31" s="57" t="s">
+      <c r="I31" s="49" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="75"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="71"/>
-      <c r="F32" s="58">
+    <row r="32" spans="1:10">
+      <c r="A32" s="65"/>
+      <c r="B32" s="64"/>
+      <c r="F32" s="50">
         <v>45459</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="51">
         <v>60180</v>
       </c>
-      <c r="I32" s="60" t="s">
+      <c r="I32" s="52" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="73"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="71"/>
-      <c r="F33" s="54">
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
+      <c r="F33" s="46">
         <v>45459</v>
       </c>
-      <c r="G33" s="55" t="s">
+      <c r="G33" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H33" s="48">
         <v>20500</v>
       </c>
-      <c r="I33" s="57" t="s">
+      <c r="I33" s="49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="71"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="71"/>
-      <c r="F34" s="58">
+      <c r="B34" s="66"/>
+      <c r="F34" s="50">
         <v>45565</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="51">
         <v>95800</v>
       </c>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="71"/>
-      <c r="F35" s="54">
+      <c r="B35" s="66"/>
+      <c r="F35" s="46">
         <v>45619</v>
       </c>
-      <c r="G35" s="79" t="s">
+      <c r="G35" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="80">
+      <c r="H35" s="68">
         <v>106614</v>
       </c>
-      <c r="I35" s="96" t="s">
+      <c r="I35" s="84" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="77"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="71"/>
-      <c r="F36" s="34">
+      <c r="B36" s="69"/>
+      <c r="F36" s="26">
         <v>45619</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="82">
+      <c r="H36" s="70">
         <v>115260</v>
       </c>
-      <c r="I36" s="60" t="s">
+      <c r="I36" s="52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-    </row>
-    <row r="38" spans="6:9">
-      <c r="F38" s="26"/>
-      <c r="G38" s="26" t="s">
+    <row r="37" spans="1:9" ht="15.5">
+      <c r="F37" s="102">
+        <v>45759</v>
+      </c>
+      <c r="G37" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="55">
+        <v>51040</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="F38" s="19"/>
+      <c r="G38" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="83">
+      <c r="H38" s="71">
         <f>SUM(H24:H37)</f>
-        <v>1075429</v>
-      </c>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="6:9">
-      <c r="F39" s="23"/>
-      <c r="G39" s="23" t="s">
+        <v>1126469</v>
+      </c>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="23">
-        <v>675000</v>
-      </c>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="6:9">
-      <c r="F40" s="84"/>
-      <c r="G40" s="84" t="s">
+      <c r="H39" s="16">
+        <v>750500</v>
+      </c>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="F40" s="72"/>
+      <c r="G40" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="85">
+      <c r="H40" s="73">
         <f>H38-H39</f>
-        <v>400429</v>
-      </c>
-      <c r="I40" s="23"/>
+        <v>375969</v>
+      </c>
+      <c r="I40" s="16"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:H17" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:H17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="20.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="19.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="10.2181818181818"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="21">
+      <c r="A2" s="14">
         <v>45383</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="15">
         <v>17000</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="21">
+      <c r="A3" s="14">
         <v>45598</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="15">
         <v>50000</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="15">
         <v>30000</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="21">
+      <c r="A5" s="14">
         <v>45629</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="15">
         <v>13500</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="15">
         <v>30000</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="15">
         <v>5000</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="21">
+      <c r="A8" s="14">
         <v>45416</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="15">
         <v>25000</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="15">
         <v>50000</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="15">
         <v>50000</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="21">
+      <c r="A11" s="14">
         <v>45601</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="15">
         <v>50000</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="15">
         <v>30000</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="15">
         <v>50000</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="15">
         <v>50000</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="25">
-        <v>45422</v>
-      </c>
-      <c r="B15" s="22">
+      <c r="A15" s="18">
+        <v>45570</v>
+      </c>
+      <c r="B15" s="15">
         <v>175000</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="21">
-        <v>45484</v>
-      </c>
-      <c r="B16" s="22">
+      <c r="A16" s="14">
+        <v>45603</v>
+      </c>
+      <c r="B16" s="93">
         <v>50000</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="14">
+        <v>45647</v>
+      </c>
+      <c r="B17" s="93">
+        <v>75000</v>
+      </c>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="27">
-        <f>SUM(B2:B17)</f>
-        <v>675500</v>
-      </c>
-      <c r="C18" s="23"/>
+      <c r="B21" s="20">
+        <f>SUM(B2:B20)</f>
+        <v>750500</v>
+      </c>
+      <c r="C21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="57.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="13.2181818181818" customWidth="1"/>
-    <col min="4" max="4" width="11.1090909090909" customWidth="1"/>
-    <col min="5" max="5" width="14.3363636363636" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" spans="1:5">
+    <row r="1" spans="1:5" ht="31">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -3031,7 +2486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" ht="15.5" spans="1:4">
+    <row r="2" spans="1:5" ht="15.5">
       <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
@@ -3041,7 +2496,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" ht="15.5" spans="1:5">
+    <row r="3" spans="1:5" ht="15.5">
       <c r="A3" s="5" t="s">
         <v>63</v>
       </c>
@@ -3058,7 +2513,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="4" ht="15.5" spans="1:5">
+    <row r="4" spans="1:5" ht="15.5">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -3075,7 +2530,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="5" ht="17.1" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -3092,7 +2547,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="6" ht="17.1" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -3103,7 +2558,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="29" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="29" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
@@ -3116,43 +2571,42 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="8" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+    <row r="8" spans="1:5" ht="17.149999999999999" customHeight="1">
+      <c r="A8" s="91"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13">
+      <c r="D8" s="90"/>
+      <c r="E8" s="10">
         <f>SUM(E3:E7)</f>
         <v>95800</v>
       </c>
     </row>
-    <row r="9" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+    <row r="9" spans="1:5" ht="17.149999999999999" customHeight="1">
+      <c r="A9" s="91"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13">
+      <c r="D9" s="90"/>
+      <c r="E9" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+    <row r="10" spans="1:5" ht="17.149999999999999" customHeight="1">
+      <c r="A10" s="91"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13">
+      <c r="D10" s="90"/>
+      <c r="E10" s="10">
         <f>SUM(E3:E7)</f>
         <v>95800</v>
       </c>
     </row>
-    <row r="13" ht="15.25"/>
-    <row r="14" ht="31" spans="1:5">
+    <row r="14" spans="1:5" ht="31">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -3169,58 +2623,58 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" ht="15.5" spans="1:5">
+    <row r="15" spans="1:5" ht="15.5">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="9">
         <v>15500</v>
       </c>
     </row>
-    <row r="16" ht="16.25" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
+    <row r="16" spans="1:5" ht="15.5">
+      <c r="A16" s="91"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13">
+      <c r="D16" s="90"/>
+      <c r="E16" s="10">
         <v>15500</v>
       </c>
     </row>
-    <row r="17" ht="16.25" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
+    <row r="17" spans="1:5" ht="15.5">
+      <c r="A17" s="91"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13">
+      <c r="D17" s="90"/>
+      <c r="E17" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="16.25" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
+    <row r="18" spans="1:5" ht="15.5">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13">
+      <c r="D18" s="90"/>
+      <c r="E18" s="10">
         <v>15500</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" ht="31" spans="1:5">
+    <row r="21" spans="1:5" ht="31">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -3237,22 +2691,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:2">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" ht="15.5" spans="1:5">
+    <row r="23" spans="1:5" ht="15.5">
       <c r="A23" s="5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="7">
@@ -3262,11 +2716,11 @@
         <v>8052</v>
       </c>
     </row>
-    <row r="24" ht="15.5" spans="1:5">
+    <row r="24" spans="1:5" ht="15.5">
       <c r="A24" s="5">
         <v>1.2</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -3279,11 +2733,11 @@
         <v>16962</v>
       </c>
     </row>
-    <row r="25" ht="15.5" spans="1:5">
+    <row r="25" spans="1:5" ht="15.5">
       <c r="A25" s="5">
         <v>1.3</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3296,22 +2750,22 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="26" ht="15.5" spans="1:5">
-      <c r="A26" s="17">
+    <row r="26" spans="1:5" ht="15.5">
+      <c r="A26" s="13">
         <v>2</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" ht="31" spans="1:5">
+    <row r="27" spans="1:5" ht="31">
       <c r="A27" s="7">
         <v>2.1</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C27" s="7"/>
@@ -3320,11 +2774,11 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="28" ht="15.5" spans="1:5">
+    <row r="28" spans="1:5" ht="15.5">
       <c r="A28" s="7">
-        <v>2.2</v>
-      </c>
-      <c r="B28" s="17" t="s">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C28" s="7"/>
@@ -3333,11 +2787,11 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="29" ht="15.5" spans="1:5">
+    <row r="29" spans="1:5" ht="15.5">
       <c r="A29" s="7">
-        <v>2.3</v>
-      </c>
-      <c r="B29" s="17" t="s">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="7"/>
@@ -3346,11 +2800,11 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="30" ht="15.5" spans="1:5">
+    <row r="30" spans="1:5" ht="15.5">
       <c r="A30" s="7">
         <v>2.4</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="7"/>
@@ -3359,42 +2813,41 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="31" ht="16.25" spans="1:5">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12" t="s">
+    <row r="31" spans="1:5" ht="15.5">
+      <c r="A31" s="91"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13">
+      <c r="D31" s="90"/>
+      <c r="E31" s="10">
         <f>SUM(E23:E30)</f>
         <v>63264</v>
       </c>
     </row>
-    <row r="32" ht="16.25" spans="1:5">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
+    <row r="32" spans="1:5" ht="15.5">
+      <c r="A32" s="91"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13">
+      <c r="D32" s="90"/>
+      <c r="E32" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.5" spans="1:5">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12" t="s">
+    <row r="33" spans="1:5" ht="15.5">
+      <c r="A33" s="91"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13">
+      <c r="D33" s="90"/>
+      <c r="E33" s="10">
         <v>63264</v>
       </c>
     </row>
-    <row r="35" ht="15.25"/>
-    <row r="36" ht="31" spans="1:5">
+    <row r="36" spans="1:5" ht="31">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -3411,25 +2864,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="2:2">
-      <c r="B37" s="16" t="s">
+    <row r="37" spans="1:5" ht="15">
+      <c r="B37" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" ht="15.5" spans="1:5">
+    <row r="38" spans="1:5" ht="15.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" ht="15.5" spans="1:5">
+    <row r="39" spans="1:5" ht="15.5">
       <c r="A39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -3442,11 +2895,11 @@
         <v>9060</v>
       </c>
     </row>
-    <row r="40" ht="15.5" spans="1:5">
+    <row r="40" spans="1:5" ht="15.5">
       <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -3459,11 +2912,11 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="41" ht="15.5" spans="1:5">
+    <row r="41" spans="1:5" ht="15.5">
       <c r="A41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -3476,11 +2929,11 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="42" ht="15.5" spans="1:5">
+    <row r="42" spans="1:5" ht="15.5">
       <c r="A42" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="13" t="s">
         <v>94</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -3493,11 +2946,11 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="43" ht="15.5" spans="1:5">
+    <row r="43" spans="1:5" ht="15.5">
       <c r="A43" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="13" t="s">
         <v>96</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -3510,11 +2963,11 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="44" ht="15.5" spans="1:5">
+    <row r="44" spans="1:5" ht="15.5">
       <c r="A44" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -3527,11 +2980,11 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="45" ht="15.5" spans="1:5">
+    <row r="45" spans="1:5" ht="15.5">
       <c r="A45" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="13" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -3544,11 +2997,11 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="46" ht="15.5" spans="1:5">
+    <row r="46" spans="1:5" ht="15.5">
       <c r="A46" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="13" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -3561,11 +3014,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="47" ht="15.5" spans="1:5">
+    <row r="47" spans="1:5" ht="15.5">
       <c r="A47" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -3578,11 +3031,11 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="48" ht="15.5" spans="1:5">
+    <row r="48" spans="1:5" ht="15.5">
       <c r="A48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -3595,11 +3048,11 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="49" ht="15.5" spans="1:5">
+    <row r="49" spans="1:5" ht="15.5">
       <c r="A49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="13" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -3612,11 +3065,11 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="50" ht="15.5" spans="1:5">
+    <row r="50" spans="1:5" ht="15.5">
       <c r="A50" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -3629,11 +3082,11 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="51" ht="15.5" spans="1:5">
+    <row r="51" spans="1:5" ht="15.5">
       <c r="A51" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="13" t="s">
         <v>116</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -3646,11 +3099,11 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="52" ht="15.5" spans="1:5">
+    <row r="52" spans="1:5" ht="15.5">
       <c r="A52" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="13" t="s">
         <v>119</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -3663,11 +3116,11 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="53" ht="15.5" spans="1:5">
+    <row r="53" spans="1:5" ht="15.5">
       <c r="A53" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="13" t="s">
         <v>122</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -3680,59 +3133,178 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="54" ht="15.5" spans="1:5">
+    <row r="54" spans="1:5" ht="15.5">
       <c r="A54" s="7"/>
-      <c r="B54" s="17"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" ht="15.5" spans="1:5">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12" t="s">
+    <row r="55" spans="1:5" ht="15.5">
+      <c r="A55" s="91"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13">
+      <c r="D55" s="90"/>
+      <c r="E55" s="10">
         <f>SUM(E39:E54)</f>
         <v>115260</v>
       </c>
     </row>
-    <row r="56" ht="15.5" spans="1:5">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12" t="s">
+    <row r="56" spans="1:5" ht="15.5">
+      <c r="A56" s="91"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="13">
+      <c r="D56" s="90"/>
+      <c r="E56" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.5" spans="1:5">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12" t="s">
+    <row r="57" spans="1:5" ht="15.5">
+      <c r="A57" s="91"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="13">
+      <c r="D57" s="90"/>
+      <c r="E57" s="10">
         <v>115260</v>
       </c>
     </row>
+    <row r="59" spans="1:5">
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A60" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="96" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="98">
+        <v>1</v>
+      </c>
+      <c r="B61" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="99">
+        <v>300</v>
+      </c>
+      <c r="E61" s="100">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="98">
+        <v>2</v>
+      </c>
+      <c r="B62" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="99">
+        <v>30</v>
+      </c>
+      <c r="E62" s="100">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="98">
+        <v>3</v>
+      </c>
+      <c r="B63" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="99">
+        <v>600</v>
+      </c>
+      <c r="E63" s="100">
+        <v>36240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="98">
+        <v>4</v>
+      </c>
+      <c r="B64" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="99">
+        <v>30</v>
+      </c>
+      <c r="E64" s="100">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.5">
+      <c r="A65" s="97"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="97"/>
+      <c r="E65" s="9">
+        <f>SUM(E61:E64)</f>
+        <v>51040</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.5">
+      <c r="A66" s="97"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="97"/>
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.5">
+      <c r="A67" s="97"/>
+      <c r="B67" s="97"/>
+      <c r="C67" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="97"/>
+      <c r="E67" s="9">
+        <v>51040</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C55:D55"/>
+  <mergeCells count="25">
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="A8:A10"/>
@@ -3743,8 +3315,17 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>